--- a/data_text/missingInfo.xlsx
+++ b/data_text/missingInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/Documents/github/Pop-PHP/data_text/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE275526-E17C-744E-8B0C-B9D11B729C14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F2F095-27EC-C049-A292-FA5AEE48350E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="50140" windowHeight="26760" activeTab="1" xr2:uid="{E5BD8B3C-FFA8-504B-92CD-0D915B7E2BA8}"/>
+    <workbookView xWindow="4860" yWindow="1400" windowWidth="50140" windowHeight="26740" activeTab="1" xr2:uid="{E5BD8B3C-FFA8-504B-92CD-0D915B7E2BA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -5049,8 +5049,8 @@
   <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
